--- a/public_html/api/template_rapport.xlsx
+++ b/public_html/api/template_rapport.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Rapport" sheetId="1" r:id="rId1"/>
+    <sheet name="Abrechnung" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Rapport!$A$1:$X$27</definedName>
   </definedNames>
@@ -18,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>Grundlohn:</t>
   </si>
@@ -233,18 +237,167 @@
   <si>
     <t xml:space="preserve"> ▲ Grundlohn exkl. 8.33% Ferienzulage</t>
   </si>
+  <si>
+    <t>Bitte den entsprechenden Betrag innert 30 Tagen auf folgendes Konto überweisen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Betrag </t>
+  </si>
+  <si>
+    <t>Subtotal Spesen / Transportkosten</t>
+  </si>
+  <si>
+    <t>à CHF</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Autokilometer à CHF 0.70</t>
+  </si>
+  <si>
+    <t>Verpflegung à CHF 26.00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="63"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Übertrag aus Arbeitsrapport</t>
+    </r>
+  </si>
+  <si>
+    <t>Spesen / Transportkosten</t>
+  </si>
+  <si>
+    <t>Familienzulage</t>
+  </si>
+  <si>
+    <t>Total Nettolohn</t>
+  </si>
+  <si>
+    <t>Subtotal Abzüge</t>
+  </si>
+  <si>
+    <t>( je nach Arbeitgeber * )</t>
+  </si>
+  <si>
+    <t>UVG / NBU</t>
+  </si>
+  <si>
+    <t>VFA</t>
+  </si>
+  <si>
+    <t>BVG-Prämie</t>
+  </si>
+  <si>
+    <t>ALV</t>
+  </si>
+  <si>
+    <t>AHV / IV / EO</t>
+  </si>
+  <si>
+    <t>* Einige Abzüge sind je nach Arbeitgeber unterschiedlich !</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abzüge Sozialleistungen</t>
+  </si>
+  <si>
+    <t>Total Bruttolohn</t>
+  </si>
+  <si>
+    <t>Subtotal Überstunden &amp; Zuschläge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachtstundenzuschlag à 25% (Nachtstunden 23:00-5:00) </t>
+  </si>
+  <si>
+    <t>ab 16. Stunde</t>
+  </si>
+  <si>
+    <t>14. und 15. Stunde</t>
+  </si>
+  <si>
+    <t>12. und 13. Stunde</t>
+  </si>
+  <si>
+    <t>10. und 11. Stunde</t>
+  </si>
+  <si>
+    <t>Überstunden &amp; Zuschläge</t>
+  </si>
+  <si>
+    <t>Subtotal Grundlohn inkl. Ferienzulage</t>
+  </si>
+  <si>
+    <t>Ferienzulage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tag</t>
+  </si>
+  <si>
+    <t>Anzahl Tage x Grundlohn</t>
+  </si>
+  <si>
+    <t>Tagesgage / Grundlohn</t>
+  </si>
+  <si>
+    <t>CHF/Stk.</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>Anz.</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Adresse:</t>
+  </si>
+  <si>
+    <t>BV:</t>
+  </si>
+  <si>
+    <t>Telefon:</t>
+  </si>
+  <si>
+    <t>E-Mail:</t>
+  </si>
+  <si>
+    <t>Dreh [von/bis]:</t>
+  </si>
+  <si>
+    <t>Vorname / Name:</t>
+  </si>
+  <si>
+    <t>Rapport Nr.:</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>FÜR LOHNABRECHNUNG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[h]:mm"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -394,8 +547,111 @@
       <sz val="6"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="63"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="63"/>
+      <name val="Wingdings 3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="63"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="55"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Wingdings 3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="55"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +754,56 @@
         <bgColor indexed="34"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -866,12 +1170,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right style="thick">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1156,255 +1603,828 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="35" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="21" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="21" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="21" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="23" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="44" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="44" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="44" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="45" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="25" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="35" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1412,7 +2432,24 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
@@ -1501,6 +2538,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Rapport"/>
+      <sheetName val="Addressen"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>450</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v xml:space="preserve"> (9h / Tag)</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>Adidas A to Z</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Marius Mahler</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Abrechnung nach AAB SSFV 2007</v>
+          </cell>
+          <cell r="P3">
+            <v>41368</v>
+          </cell>
+          <cell r="V3">
+            <v>41369</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Birchstr.94</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v xml:space="preserve">756.8839.2936.88 </v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>Hillton AG</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>8050 Zürich</v>
+          </cell>
+          <cell r="G5">
+            <v>31417</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>Badenerstasse 571</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>+41 (0) 79 944 47 76</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>UBS CH32 0023 3233 7271 1940C</v>
+          </cell>
+          <cell r="P6" t="str">
+            <v>CH-8048 Zürich</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>marius.mahler@gmail.com</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>Vorsorgestiftung Film- &amp; Audiovision</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>2. Kameraassistent</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>41368</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Dreh</v>
+          </cell>
+          <cell r="J16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="L33">
+            <v>2</v>
+          </cell>
+          <cell r="N33">
+            <v>0.3</v>
+          </cell>
+          <cell r="P33">
+            <v>0</v>
+          </cell>
+          <cell r="R33">
+            <v>0</v>
+          </cell>
+          <cell r="T33">
+            <v>0.82000000000000006</v>
+          </cell>
+          <cell r="W33">
+            <v>0</v>
+          </cell>
+          <cell r="X33">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1809,7 +2965,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1853,7 +3009,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1877,11 +3033,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.703125" style="2" customWidth="1"/>
@@ -1903,12 +3059,12 @@
     <col min="26" max="16384" width="10.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:26" ht="6" customHeight="1" thickBot="1">
+      <c r="A1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="1"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1923,191 +3079,191 @@
       <c r="X1" s="3"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="118"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="119"/>
+      <c r="J2" s="110"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115" t="s">
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="115"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="7"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="7"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="101" t="s">
+      <c r="L7" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="4.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="4.05" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2134,7 +3290,7 @@
       <c r="X8" s="3"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="4.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="4.05" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2161,80 +3317,80 @@
       <c r="X9" s="13"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:26" s="18" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A10" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="122"/>
       <c r="I10" s="16"/>
       <c r="J10" s="17" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="82"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="80" t="s">
+      <c r="W10" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="X10" s="82"/>
+      <c r="X10" s="122"/>
       <c r="Z10" s="19"/>
     </row>
-    <row r="11" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="135" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="135" t="s">
         <v>50</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="91" t="s">
+      <c r="L11" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="91" t="s">
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="93"/>
-      <c r="V11" s="89" t="s">
+      <c r="U11" s="138"/>
+      <c r="V11" s="135" t="s">
         <v>50</v>
       </c>
       <c r="W11" s="26"/>
@@ -2242,127 +3398,127 @@
       <c r="Y11" s="27"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" ht="9" customHeight="1" thickBot="1">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="89"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="29"/>
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="89"/>
+      <c r="I12" s="135"/>
       <c r="J12" s="33"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90" t="s">
+      <c r="K12" s="135"/>
+      <c r="L12" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="90" t="s">
+      <c r="M12" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="90" t="s">
+      <c r="N12" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="90" t="s">
+      <c r="O12" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="90" t="s">
+      <c r="P12" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="90" t="s">
+      <c r="Q12" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86">
+      <c r="S12" s="131"/>
+      <c r="T12" s="132">
         <v>0.95833333333333337</v>
       </c>
-      <c r="U12" s="86"/>
-      <c r="V12" s="89"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="135"/>
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
       <c r="Y12" s="27"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="9" customHeight="1" thickBot="1">
       <c r="A13" s="35"/>
       <c r="B13" s="28"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="105" t="s">
+      <c r="D13" s="135"/>
+      <c r="E13" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="H13" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="89"/>
+      <c r="I13" s="135"/>
       <c r="J13" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="87" t="s">
+      <c r="K13" s="135"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="U13" s="87"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="99" t="s">
+      <c r="U13" s="133"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="99" t="s">
+      <c r="X13" s="119" t="s">
         <v>31</v>
       </c>
       <c r="Y13" s="27"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="9" customHeight="1" thickBot="1">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="89"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="135"/>
       <c r="J14" s="37"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="88">
+      <c r="K14" s="135"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="134">
         <v>0.20833333333333334</v>
       </c>
-      <c r="U14" s="88"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
       <c r="Y14" s="27"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
+    <row r="15" spans="1:26" ht="24" customHeight="1" thickBot="1">
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
       <c r="E15" s="40"/>
@@ -2378,59 +3534,59 @@
       <c r="O15" s="45"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="140"/>
       <c r="V15" s="46"/>
       <c r="W15" s="47"/>
       <c r="X15" s="47"/>
-      <c r="Y15" s="84"/>
+      <c r="Y15" s="130"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="138" t="s">
+      <c r="J16" s="79" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="52"/>
-      <c r="L16" s="134">
+      <c r="L16" s="116">
         <v>1.25</v>
       </c>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134">
+      <c r="M16" s="116"/>
+      <c r="N16" s="116">
         <v>1.5</v>
       </c>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134">
+      <c r="O16" s="116"/>
+      <c r="P16" s="116">
         <v>2</v>
       </c>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134">
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116">
         <v>2.5</v>
       </c>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134">
+      <c r="S16" s="116"/>
+      <c r="T16" s="116">
         <v>0.25</v>
       </c>
-      <c r="U16" s="134"/>
+      <c r="U16" s="116"/>
       <c r="V16" s="48"/>
       <c r="W16" s="49"/>
       <c r="X16" s="49"/>
-      <c r="Y16" s="84"/>
+      <c r="Y16" s="130"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="54" t="s">
         <v>32</v>
       </c>
@@ -2441,180 +3597,180 @@
       <c r="F17" s="55"/>
       <c r="H17" s="54"/>
       <c r="I17" s="57"/>
-      <c r="J17" s="140"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="58"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="136"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="141"/>
       <c r="V17" s="59"/>
-      <c r="W17" s="143"/>
-      <c r="X17" s="142"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="83"/>
       <c r="Y17" s="60"/>
       <c r="Z17" s="55"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="54"/>
-      <c r="H18" s="130" t="s">
+      <c r="H18" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="131"/>
-      <c r="J18" s="139"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="61"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
       <c r="V18" s="62"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="141"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
       <c r="Y18" s="63"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="121"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="54"/>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="132"/>
+      <c r="I19" s="97"/>
       <c r="J19" s="64"/>
       <c r="K19" s="65"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="137"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="137"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
       <c r="V19" s="66"/>
       <c r="W19" s="67"/>
       <c r="X19" s="67"/>
       <c r="Y19" s="63"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="121"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="54"/>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="132"/>
+      <c r="I20" s="97"/>
       <c r="J20" s="68" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="57"/>
-      <c r="L20" s="135" t="s">
+      <c r="L20" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
       <c r="V20" s="57"/>
-      <c r="W20" s="79" t="s">
+      <c r="W20" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="X20" s="79"/>
+      <c r="X20" s="143"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
+    <row r="21" spans="1:26" ht="10.050000000000001" customHeight="1">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
       <c r="J21" s="69" t="s">
         <v>51</v>
       </c>
       <c r="K21" s="70"/>
-      <c r="L21" s="127" t="s">
+      <c r="L21" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
       <c r="V21" s="70"/>
-      <c r="W21" s="127" t="s">
+      <c r="W21" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="X21" s="127"/>
+      <c r="X21" s="92"/>
       <c r="Y21" s="71"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="H22" s="130" t="s">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="H22" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="132"/>
+      <c r="I22" s="97"/>
       <c r="J22" s="72"/>
       <c r="K22" s="73"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
       <c r="V22" s="74"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -2622,12 +3778,12 @@
       <c r="E23" s="75"/>
       <c r="F23" s="75"/>
       <c r="G23" s="48"/>
-      <c r="J23" s="123" t="s">
+      <c r="J23" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
       <c r="P23" s="76"/>
@@ -2639,15 +3795,15 @@
       <c r="Y23" s="63"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="129" t="s">
+    <row r="24" spans="1:26" ht="10.050000000000001" customHeight="1">
+      <c r="A24" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
       <c r="H24" s="53"/>
       <c r="J24" s="77"/>
       <c r="K24" s="76"/>
@@ -2663,116 +3819,114 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="126" t="s">
+    <row r="25" spans="1:26" ht="10.050000000000001" customHeight="1">
+      <c r="A25" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="126" t="s">
+    <row r="26" spans="1:26" ht="10.050000000000001" customHeight="1">
+      <c r="A26" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="78"/>
-      <c r="J26" s="124" t="s">
+      <c r="J26" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="124"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="124"/>
-      <c r="V26" s="124"/>
-      <c r="W26" s="124"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="126" t="s">
+    <row r="27" spans="1:26" ht="10.050000000000001" customHeight="1">
+      <c r="A27" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="J27" s="125" t="s">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="J27" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
       <c r="Z27" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="102">
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J26:W26"/>
-    <mergeCell ref="J27:W27"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="L21:U21"/>
-    <mergeCell ref="L22:U22"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="P2:X2"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="L20:U20"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="L10:U10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="R12:S14"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="P4:X4"/>
     <mergeCell ref="P5:X5"/>
@@ -2797,48 +3951,1277 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="R12:S14"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="L20:U20"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="L10:U10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="P2:X2"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J26:W26"/>
+    <mergeCell ref="J27:W27"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="L21:U21"/>
+    <mergeCell ref="L22:U22"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J72"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.703125" defaultRowHeight="5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.703125" style="144" customWidth="1"/>
+    <col min="2" max="2" width="7.703125" style="144" customWidth="1"/>
+    <col min="3" max="4" width="10" style="144" customWidth="1"/>
+    <col min="5" max="5" width="4.703125" style="144" customWidth="1"/>
+    <col min="6" max="6" width="0.87890625" style="144" customWidth="1"/>
+    <col min="7" max="7" width="9.703125" style="144" customWidth="1"/>
+    <col min="8" max="8" width="10.41015625" style="144" customWidth="1"/>
+    <col min="9" max="9" width="9.703125" style="144" customWidth="1"/>
+    <col min="10" max="10" width="1.703125" style="144" customWidth="1"/>
+    <col min="11" max="16384" width="10.703125" style="144"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="250" customFormat="1" ht="3" customHeight="1">
+      <c r="A1" s="307" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+    </row>
+    <row r="2" spans="1:10" s="250" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="307"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="290" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="290"/>
+      <c r="H2" s="306">
+        <f ca="1">TODAY()</f>
+        <v>42026</v>
+      </c>
+      <c r="I2" s="306"/>
+      <c r="J2" s="251"/>
+    </row>
+    <row r="3" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="B3" s="305"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="225" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="225"/>
+      <c r="H3" s="304">
+        <f>[1]Rapport!P3</f>
+        <v>41368</v>
+      </c>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+    </row>
+    <row r="4" spans="1:10" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="225" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="146"/>
+      <c r="C4" s="284" t="str">
+        <f>[1]Rapport!A3</f>
+        <v>Marius Mahler</v>
+      </c>
+      <c r="D4" s="157"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+    </row>
+    <row r="5" spans="1:10" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="225" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="146"/>
+      <c r="C5" s="284" t="str">
+        <f>[1]Rapport!A4</f>
+        <v>Birchstr.94</v>
+      </c>
+      <c r="D5" s="157"/>
+      <c r="F5" s="290" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="225"/>
+      <c r="H5" s="303" t="str">
+        <f>IF([1]Rapport!P2="","",[1]Rapport!P2)</f>
+        <v>Adidas A to Z</v>
+      </c>
+      <c r="I5" s="292"/>
+    </row>
+    <row r="6" spans="1:10" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="146"/>
+      <c r="C6" s="284" t="str">
+        <f>[1]Rapport!A5</f>
+        <v>8050 Zürich</v>
+      </c>
+      <c r="D6" s="157"/>
+      <c r="F6" s="290" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="225"/>
+      <c r="H6" s="302">
+        <f>IF([1]Rapport!P3="","",[1]Rapport!P3)</f>
+        <v>41368</v>
+      </c>
+      <c r="I6" s="301">
+        <f>IF([1]Rapport!V3="","",[1]Rapport!V3)</f>
+        <v>41369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="225" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="146"/>
+      <c r="C7" s="284" t="str">
+        <f>[1]Rapport!A7</f>
+        <v>marius.mahler@gmail.com</v>
+      </c>
+      <c r="D7" s="157"/>
+      <c r="F7" s="225" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="225"/>
+      <c r="H7" s="300" t="str">
+        <f>IF([1]Rapport!P7="","",[1]Rapport!P7)</f>
+        <v>2. Kameraassistent</v>
+      </c>
+      <c r="I7" s="285"/>
+    </row>
+    <row r="8" spans="1:10" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="225" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="299"/>
+      <c r="C8" s="284" t="str">
+        <f>[1]Rapport!A6</f>
+        <v>+41 (0) 79 944 47 76</v>
+      </c>
+      <c r="D8" s="157"/>
+      <c r="F8" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="225"/>
+      <c r="H8" s="298">
+        <f>[1]Rapport!G2</f>
+        <v>450</v>
+      </c>
+      <c r="I8" s="297" t="str">
+        <f>[1]Rapport!I2</f>
+        <v xml:space="preserve"> (9h / Tag)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="157" t="str">
+        <f>[1]Rapport!G3</f>
+        <v>Abrechnung nach AAB SSFV 2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A10" s="291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="250"/>
+      <c r="C10" s="289" t="str">
+        <f>[1]Rapport!G4</f>
+        <v xml:space="preserve">756.8839.2936.88 </v>
+      </c>
+      <c r="D10" s="288"/>
+      <c r="E10" s="296"/>
+      <c r="G10" s="225"/>
+    </row>
+    <row r="11" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A11" s="291" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="250"/>
+      <c r="C11" s="295">
+        <f>[1]Rapport!G5</f>
+        <v>31417</v>
+      </c>
+      <c r="D11" s="288"/>
+      <c r="E11" s="294"/>
+      <c r="F11" s="225" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="225"/>
+      <c r="H11" s="287" t="str">
+        <f>IF([1]Rapport!P4="","",[1]Rapport!P4)</f>
+        <v>Hillton AG</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="285"/>
+    </row>
+    <row r="12" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A12" s="291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="293"/>
+      <c r="C12" s="289" t="str">
+        <f>[1]Rapport!G6</f>
+        <v>UBS CH32 0023 3233 7271 1940C</v>
+      </c>
+      <c r="D12" s="288"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="287" t="str">
+        <f>IF([1]Rapport!P5="","",[1]Rapport!P5)</f>
+        <v>Badenerstasse 571</v>
+      </c>
+      <c r="I12" s="286"/>
+      <c r="J12" s="292"/>
+    </row>
+    <row r="13" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="291" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="290"/>
+      <c r="C13" s="289" t="str">
+        <f>[1]Rapport!G7</f>
+        <v>Vorsorgestiftung Film- &amp; Audiovision</v>
+      </c>
+      <c r="D13" s="288"/>
+      <c r="F13" s="225" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="225"/>
+      <c r="H13" s="287" t="str">
+        <f>IF([1]Rapport!P6="","",[1]Rapport!P6)</f>
+        <v>CH-8048 Zürich</v>
+      </c>
+      <c r="I13" s="286"/>
+      <c r="J13" s="285"/>
+    </row>
+    <row r="14" spans="1:10" ht="5" customHeight="1">
+      <c r="A14" s="173"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="284"/>
+      <c r="G14" s="284"/>
+      <c r="H14" s="284"/>
+      <c r="I14" s="284"/>
+      <c r="J14" s="284"/>
+    </row>
+    <row r="15" spans="1:10" s="250" customFormat="1" ht="9" customHeight="1">
+      <c r="A15" s="251"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+    </row>
+    <row r="16" spans="1:10" s="225" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="283" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="282"/>
+      <c r="C16" s="282"/>
+      <c r="D16" s="281"/>
+      <c r="E16" s="278" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="280"/>
+      <c r="G16" s="279" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="278" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="277" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="277"/>
+    </row>
+    <row r="17" spans="1:10" s="275" customFormat="1" ht="8" customHeight="1">
+      <c r="A17" s="276"/>
+      <c r="B17" s="276"/>
+      <c r="C17" s="276"/>
+      <c r="D17" s="276"/>
+      <c r="E17" s="276"/>
+      <c r="F17" s="276"/>
+      <c r="G17" s="276"/>
+      <c r="H17" s="276"/>
+      <c r="I17" s="276"/>
+      <c r="J17" s="184"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="274" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="273"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="181" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="174"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+    </row>
+    <row r="19" spans="1:10" ht="2" customHeight="1" thickBot="1">
+      <c r="A19" s="205"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A20" s="268">
+        <f>[1]Rapport!A16:B16</f>
+        <v>41368</v>
+      </c>
+      <c r="B20" s="268"/>
+      <c r="C20" s="268" t="str">
+        <f>IF([1]Rapport!C16="","",[1]Rapport!C16)</f>
+        <v>Dreh</v>
+      </c>
+      <c r="D20" s="268"/>
+      <c r="E20" s="267">
+        <f>[1]Rapport!J16</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="162"/>
+      <c r="G20" s="271" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="270">
+        <f>IF(E20="","",H8)</f>
+        <v>450</v>
+      </c>
+      <c r="I20" s="269">
+        <f>IF(E20="","",H8*E20)</f>
+        <v>450</v>
+      </c>
+      <c r="J20" s="269"/>
+    </row>
+    <row r="21" spans="1:10" ht="3.75" customHeight="1" thickBot="1">
+      <c r="A21" s="173"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+    </row>
+    <row r="22" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="158"/>
+      <c r="B22" s="266" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="265"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="263">
+        <f>SUM(E20:E20)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="162"/>
+      <c r="G22" s="262" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="261">
+        <f>H8</f>
+        <v>450</v>
+      </c>
+      <c r="I22" s="260">
+        <f>SUM(I20:J20)</f>
+        <v>450</v>
+      </c>
+      <c r="J22" s="260"/>
+    </row>
+    <row r="23" spans="1:10" ht="3.75" customHeight="1">
+      <c r="A23" s="173"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="173"/>
+    </row>
+    <row r="24" spans="1:10" s="252" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A24" s="259"/>
+      <c r="B24" s="258" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="258"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="256">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="F24" s="255"/>
+      <c r="G24" s="254">
+        <f>I22</f>
+        <v>450</v>
+      </c>
+      <c r="H24" s="246"/>
+      <c r="I24" s="253">
+        <f>ROUND(E24*G24,1)</f>
+        <v>37.5</v>
+      </c>
+      <c r="J24" s="253"/>
+    </row>
+    <row r="25" spans="1:10" ht="5" customHeight="1">
+      <c r="A25" s="157"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+    </row>
+    <row r="26" spans="1:10" s="225" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A26" s="157"/>
+      <c r="B26" s="156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="208">
+        <f>SUM(I22:J24)</f>
+        <v>487.5</v>
+      </c>
+      <c r="J26" s="208"/>
+    </row>
+    <row r="27" spans="1:10" s="250" customFormat="1" ht="5" customHeight="1">
+      <c r="A27" s="251"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="251"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="249" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="248"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="181" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="174"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="233"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="157"/>
+    </row>
+    <row r="29" spans="1:10" ht="2" customHeight="1" thickBot="1">
+      <c r="A29" s="157"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="157"/>
+    </row>
+    <row r="30" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A30" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="230"/>
+      <c r="C30" s="239">
+        <v>1</v>
+      </c>
+      <c r="D30" s="238"/>
+      <c r="E30" s="229">
+        <f>[1]Rapport!L33</f>
+        <v>2</v>
+      </c>
+      <c r="F30" s="163"/>
+      <c r="G30" s="245" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="244">
+        <f>ROUND(H8/9*C30,1)</f>
+        <v>50</v>
+      </c>
+      <c r="I30" s="243">
+        <f>H30*E30</f>
+        <v>100</v>
+      </c>
+      <c r="J30" s="243"/>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A31" s="232" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="230"/>
+      <c r="C31" s="239">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="238"/>
+      <c r="E31" s="229">
+        <f>[1]Rapport!N33</f>
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="163"/>
+      <c r="G31" s="242" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="241">
+        <f>ROUND(H8/9*C31,1)</f>
+        <v>75</v>
+      </c>
+      <c r="I31" s="240">
+        <f>H31*E31</f>
+        <v>22.5</v>
+      </c>
+      <c r="J31" s="240"/>
+    </row>
+    <row r="32" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A32" s="232" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="230"/>
+      <c r="C32" s="239">
+        <v>2</v>
+      </c>
+      <c r="D32" s="238"/>
+      <c r="E32" s="229">
+        <f>[1]Rapport!P33</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="163"/>
+      <c r="G32" s="242" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="241">
+        <f>ROUND(H8/9*C32,1)</f>
+        <v>100</v>
+      </c>
+      <c r="I32" s="240">
+        <f>H32*E32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="240"/>
+    </row>
+    <row r="33" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A33" s="232" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="230"/>
+      <c r="C33" s="239">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="238"/>
+      <c r="E33" s="229">
+        <f>[1]Rapport!R33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="163"/>
+      <c r="G33" s="237" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="236">
+        <f>ROUND(H8/9*C33,1)</f>
+        <v>125</v>
+      </c>
+      <c r="I33" s="235">
+        <f>H33*E33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="235"/>
+    </row>
+    <row r="34" spans="1:10" ht="3.75" customHeight="1" thickBot="1">
+      <c r="A34" s="184"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="173"/>
+    </row>
+    <row r="35" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A35" s="232" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="231"/>
+      <c r="C35" s="231"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="229">
+        <f>[1]Rapport!T33</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="F35" s="163"/>
+      <c r="G35" s="228" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="227">
+        <f>ROUND(H8/9*25%,1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I35" s="226">
+        <f>H35*E35</f>
+        <v>10.25</v>
+      </c>
+      <c r="J35" s="226"/>
+    </row>
+    <row r="36" spans="1:10" ht="5" customHeight="1">
+      <c r="A36" s="157"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+    </row>
+    <row r="37" spans="1:10" s="225" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A37" s="157"/>
+      <c r="B37" s="156" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="208">
+        <f>SUM(I30:J35)</f>
+        <v>132.75</v>
+      </c>
+      <c r="J37" s="208"/>
+    </row>
+    <row r="39" spans="1:10" ht="17" customHeight="1">
+      <c r="A39" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="153"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="152">
+        <f>I26+I37</f>
+        <v>620.25</v>
+      </c>
+      <c r="J39" s="152"/>
+    </row>
+    <row r="40" spans="1:10" ht="12" customHeight="1">
+      <c r="A40" s="193"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="224"/>
+    </row>
+    <row r="41" spans="1:10" s="157" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="191" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="223"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="221" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207"/>
+    </row>
+    <row r="42" spans="1:10" s="157" customFormat="1" ht="5" customHeight="1">
+      <c r="A42" s="207"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="207"/>
+    </row>
+    <row r="43" spans="1:10" s="157" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A43" s="213" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="213"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="213"/>
+      <c r="E43" s="215">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F43" s="205"/>
+      <c r="G43" s="188">
+        <f>I39</f>
+        <v>620.25</v>
+      </c>
+      <c r="H43" s="207"/>
+      <c r="I43" s="210">
+        <f>ROUND(G43*E43*-1,1)</f>
+        <v>-37.5</v>
+      </c>
+      <c r="J43" s="210"/>
+    </row>
+    <row r="44" spans="1:10" s="157" customFormat="1" ht="3" customHeight="1">
+      <c r="A44" s="205"/>
+      <c r="C44" s="205"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="207"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="201"/>
+    </row>
+    <row r="45" spans="1:10" s="157" customFormat="1" ht="12" customHeight="1">
+      <c r="A45" s="213" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="213"/>
+      <c r="C45" s="214" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="220"/>
+      <c r="E45" s="215">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F45" s="205"/>
+      <c r="G45" s="219"/>
+      <c r="H45" s="207"/>
+      <c r="I45" s="210">
+        <f>ROUND(G45*E45*-1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="210"/>
+    </row>
+    <row r="46" spans="1:10" s="157" customFormat="1" ht="3" customHeight="1">
+      <c r="A46" s="205"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="216"/>
+      <c r="H46" s="207"/>
+      <c r="I46" s="201"/>
+      <c r="J46" s="201"/>
+    </row>
+    <row r="47" spans="1:10" s="157" customFormat="1" ht="12" customHeight="1">
+      <c r="A47" s="213" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="213"/>
+      <c r="E47" s="215">
+        <v>0.06</v>
+      </c>
+      <c r="F47" s="205"/>
+      <c r="G47" s="188">
+        <f>I39</f>
+        <v>620.25</v>
+      </c>
+      <c r="H47" s="207"/>
+      <c r="I47" s="210">
+        <f>ROUND(G47*E47*-1,1)</f>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="J47" s="210"/>
+    </row>
+    <row r="48" spans="1:10" s="157" customFormat="1" ht="3" customHeight="1">
+      <c r="A48" s="205"/>
+      <c r="C48" s="205"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="205"/>
+      <c r="F48" s="205"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="207"/>
+      <c r="I48" s="205"/>
+      <c r="J48" s="202"/>
+    </row>
+    <row r="49" spans="1:10" s="157" customFormat="1" ht="12" customHeight="1">
+      <c r="A49" s="213" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="213"/>
+      <c r="C49" s="213"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="189">
+        <v>0</v>
+      </c>
+      <c r="F49" s="205"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="210">
+        <f>ROUND(G49*E49*-1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="210"/>
+    </row>
+    <row r="50" spans="1:10" s="157" customFormat="1" ht="3" customHeight="1">
+      <c r="A50" s="205"/>
+      <c r="C50" s="205"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="205"/>
+      <c r="J50" s="202"/>
+    </row>
+    <row r="51" spans="1:10" s="157" customFormat="1" ht="12" customHeight="1">
+      <c r="A51" s="213" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="213"/>
+      <c r="C51" s="214" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="213"/>
+      <c r="E51" s="212">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F51" s="205"/>
+      <c r="G51" s="211"/>
+      <c r="H51" s="203"/>
+      <c r="I51" s="210">
+        <f>ROUND(G51*E51*-1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="210"/>
+    </row>
+    <row r="52" spans="1:10" s="157" customFormat="1" ht="5" customHeight="1">
+      <c r="A52" s="207"/>
+      <c r="B52" s="205"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="205"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="203"/>
+      <c r="I52" s="202"/>
+      <c r="J52" s="201"/>
+    </row>
+    <row r="53" spans="1:10" s="157" customFormat="1" ht="12" customHeight="1">
+      <c r="B53" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="209" t="str">
+        <f>IF(E51=0,"p","")</f>
+        <v/>
+      </c>
+      <c r="F53" s="205"/>
+      <c r="G53" s="209" t="str">
+        <f>IF(G45=0,"p",IF(G51=0,"p",""))</f>
+        <v>p</v>
+      </c>
+      <c r="H53" s="155"/>
+      <c r="I53" s="208">
+        <f>SUM(I43:J51)</f>
+        <v>-74.7</v>
+      </c>
+      <c r="J53" s="208"/>
+    </row>
+    <row r="54" spans="1:10" s="157" customFormat="1" ht="5" customHeight="1">
+      <c r="A54" s="207"/>
+      <c r="B54" s="207"/>
+      <c r="C54" s="207"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="203"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="201"/>
+    </row>
+    <row r="55" spans="1:10" ht="17" customHeight="1" thickBot="1">
+      <c r="A55" s="200" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="198"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="197" t="str">
+        <f>IF(I45=0,"p",IF(I51=0,"p",""))</f>
+        <v>p</v>
+      </c>
+      <c r="F55" s="195"/>
+      <c r="G55" s="196" t="str">
+        <f>IF(I45=0,"Fehlende Abzüge noch eintragen !",IF(I51=0,"Kein UVG / NBU",""))</f>
+        <v>Fehlende Abzüge noch eintragen !</v>
+      </c>
+      <c r="H55" s="195"/>
+      <c r="I55" s="194" t="str">
+        <f>IF(I45=0,"!",I53+I39)</f>
+        <v>!</v>
+      </c>
+      <c r="J55" s="194"/>
+    </row>
+    <row r="56" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A56" s="193"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="193"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="193"/>
+      <c r="F56" s="193"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="193"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="192"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A57" s="191" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="190"/>
+      <c r="C57" s="190"/>
+      <c r="D57" s="190"/>
+      <c r="E57" s="189">
+        <v>0</v>
+      </c>
+      <c r="F57" s="185"/>
+      <c r="G57" s="188">
+        <v>0</v>
+      </c>
+      <c r="H57" s="187"/>
+      <c r="I57" s="186">
+        <f>ROUND(G57*E57,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="186"/>
+    </row>
+    <row r="58" spans="1:10" s="184" customFormat="1" ht="5" customHeight="1">
+      <c r="A58" s="185"/>
+      <c r="B58" s="185"/>
+      <c r="C58" s="185"/>
+      <c r="D58" s="185"/>
+      <c r="E58" s="185"/>
+      <c r="F58" s="185"/>
+      <c r="G58" s="185"/>
+      <c r="H58" s="185"/>
+      <c r="I58" s="185"/>
+      <c r="J58" s="185"/>
+    </row>
+    <row r="59" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A59" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
+      <c r="E59" s="181" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="174"/>
+      <c r="G59" s="173"/>
+      <c r="H59" s="173"/>
+      <c r="I59" s="173"/>
+      <c r="J59" s="157"/>
+    </row>
+    <row r="60" spans="1:10" ht="2" customHeight="1" thickBot="1"/>
+    <row r="61" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A61" s="180" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="178"/>
+      <c r="E61" s="177">
+        <f>[1]Rapport!W33</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="163"/>
+      <c r="G61" s="168" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="176">
+        <v>26</v>
+      </c>
+      <c r="I61" s="175">
+        <f>H61*E61</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="175"/>
+    </row>
+    <row r="62" spans="1:10" ht="3.75" customHeight="1" thickBot="1">
+      <c r="A62" s="173"/>
+      <c r="B62" s="173"/>
+      <c r="C62" s="173"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="174"/>
+      <c r="F62" s="174"/>
+      <c r="G62" s="173"/>
+      <c r="H62" s="173"/>
+      <c r="I62" s="173"/>
+      <c r="J62" s="173"/>
+    </row>
+    <row r="63" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A63" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="171"/>
+      <c r="C63" s="171"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="169">
+        <f>[1]Rapport!X33</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="163"/>
+      <c r="G63" s="168" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="167">
+        <v>0.7</v>
+      </c>
+      <c r="I63" s="166">
+        <f>H63*E63</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="166"/>
+    </row>
+    <row r="64" spans="1:10" ht="3.75" customHeight="1" thickBot="1">
+      <c r="A64" s="173"/>
+      <c r="B64" s="173"/>
+      <c r="C64" s="173"/>
+      <c r="D64" s="173"/>
+      <c r="E64" s="174"/>
+      <c r="F64" s="174"/>
+      <c r="G64" s="173"/>
+      <c r="H64" s="173"/>
+      <c r="I64" s="173"/>
+      <c r="J64" s="173"/>
+    </row>
+    <row r="65" spans="1:10" ht="12" customHeight="1" thickBot="1">
+      <c r="A65" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="171"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="169">
+        <v>0</v>
+      </c>
+      <c r="F65" s="163"/>
+      <c r="G65" s="168" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="167">
+        <v>0</v>
+      </c>
+      <c r="I65" s="166">
+        <f>H65*E65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="166"/>
+    </row>
+    <row r="66" spans="1:10" s="158" customFormat="1" ht="5" customHeight="1">
+      <c r="A66" s="165"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="163"/>
+      <c r="G66" s="162"/>
+      <c r="H66" s="161"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="159"/>
+    </row>
+    <row r="67" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A67" s="157"/>
+      <c r="B67" s="156" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="155"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="155"/>
+      <c r="I67" s="154">
+        <f>SUM(I60:J65)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="154"/>
+    </row>
+    <row r="69" spans="1:10" s="149" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A69" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="153"/>
+      <c r="C69" s="153"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="153"/>
+      <c r="F69" s="153"/>
+      <c r="G69" s="153"/>
+      <c r="H69" s="153"/>
+      <c r="I69" s="152" t="str">
+        <f>IF(I55="!","!",I67+I55)</f>
+        <v>!</v>
+      </c>
+      <c r="J69" s="152"/>
+    </row>
+    <row r="70" spans="1:10" s="149" customFormat="1" ht="11" customHeight="1" thickTop="1">
+      <c r="A70" s="151"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="151"/>
+      <c r="D70" s="151"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="151"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="150"/>
+    </row>
+    <row r="71" spans="1:10" ht="13.5" customHeight="1" thickBot="1"/>
+    <row r="72" spans="1:10" ht="11" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A72" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="147"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
+      <c r="G72" s="146" t="str">
+        <f>[1]Rapport!G6</f>
+        <v>UBS CH32 0023 3233 7271 1940C</v>
+      </c>
+      <c r="J72" s="145"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="28">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I65:J65"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E51 G45 G51">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.51180555555555551" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/public_html/api/template_rapport.xlsx
+++ b/public_html/api/template_rapport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr date1904="1" filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E7B21-7790-4952-A845-22F0A34722BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="9285" tabRatio="280"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13245" tabRatio="280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapport" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>Grundlohn:</t>
   </si>
@@ -316,12 +317,6 @@
     <t>Vorname/ Name:</t>
   </si>
   <si>
-    <t>Garage Jensen</t>
-  </si>
-  <si>
-    <t>16.08.2019</t>
-  </si>
-  <si>
     <t>Abrechnung nach AAB SSFV 2014</t>
   </si>
   <si>
@@ -435,19 +430,10 @@
     <t>SPESENBLATT</t>
   </si>
   <si>
-    <t>16.08.2019 bis 17.08.2019</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Betrag</t>
-  </si>
-  <si>
-    <t>Tanken DF Auto</t>
-  </si>
-  <si>
-    <t>Betanken vom leeren DF Auto</t>
   </si>
   <si>
     <t>Weitere Spesen (Übertrag aus Spesenblatt)</t>
@@ -490,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2640,6 +2626,255 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="27" fillId="17" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -2666,10 +2901,6 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="167" fontId="15" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
@@ -2686,6 +2917,18 @@
       <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="4" fontId="27" fillId="12" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="12" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="12" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -2714,6 +2957,22 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="4" fontId="27" fillId="14" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="14" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="14" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="14" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
@@ -2722,246 +2981,68 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="85" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="86" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="25" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2969,74 +3050,23 @@
     <xf numFmtId="0" fontId="29" fillId="25" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="84" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="84" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3068,12 +3098,6 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3089,50 +3113,59 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="85" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="86" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="84" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3143,32 +3176,17 @@
     <xf numFmtId="0" fontId="29" fillId="25" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="84" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="19" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3201,43 +3219,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="27" fillId="17" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="12" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="12" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="12" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="14" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="14" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="14" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="14" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3637,7 +3623,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3681,7 +3667,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3702,11 +3688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:W26"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3732,11 +3718,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
       <c r="D1" s="70"/>
       <c r="E1" s="71"/>
       <c r="F1" s="71"/>
@@ -3761,191 +3747,191 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
       <c r="D2" s="74"/>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="176"/>
+      <c r="F2" s="203"/>
       <c r="G2" s="3"/>
       <c r="H2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="177"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="179" t="s">
+      <c r="L2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="5"/>
       <c r="E3" s="42"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="178" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
+      <c r="G3" s="205" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="179" t="s">
+      <c r="L3" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="173" t="s">
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="173"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="165"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="184" t="s">
+      <c r="E4" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="185"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="179" t="s">
+      <c r="L4" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="165"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="173"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="185"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
       <c r="K5" s="4"/>
       <c r="L5" s="77"/>
       <c r="M5" s="77"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="184" t="s">
+      <c r="E6" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="185"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
       <c r="K6" s="4"/>
       <c r="L6" s="77"/>
       <c r="M6" s="77"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
-      <c r="T6" s="165"/>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="173"/>
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="184" t="s">
+      <c r="E7" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="185"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="179" t="s">
+      <c r="L7" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="4.05" customHeight="1">
@@ -4003,79 +3989,79 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" s="12" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="132" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="191" t="s">
+      <c r="E10" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="184"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="218" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="182"/>
-      <c r="U10" s="219"/>
+      <c r="L10" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="152"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="X10" s="221"/>
+      <c r="W10" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" s="154"/>
       <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="1:26" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
       <c r="B11" s="14"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="205" t="s">
+      <c r="D11" s="164" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="205" t="s">
+      <c r="I11" s="164" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="205" t="s">
+      <c r="K11" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="206" t="s">
+      <c r="L11" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="207"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="207"/>
-      <c r="S11" s="208"/>
-      <c r="T11" s="206" t="s">
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="208"/>
-      <c r="V11" s="205" t="s">
+      <c r="U11" s="169"/>
+      <c r="V11" s="164" t="s">
         <v>46</v>
       </c>
       <c r="W11" s="20"/>
@@ -4087,41 +4073,41 @@
       <c r="A12" s="84"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="205"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="23"/>
       <c r="F12" s="63"/>
       <c r="G12" s="24"/>
       <c r="H12" s="62"/>
-      <c r="I12" s="205"/>
+      <c r="I12" s="164"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="190" t="s">
+      <c r="K12" s="164"/>
+      <c r="L12" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="190" t="s">
+      <c r="M12" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="190" t="s">
+      <c r="N12" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="190" t="s">
+      <c r="O12" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="190" t="s">
+      <c r="P12" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="190" t="s">
+      <c r="Q12" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="201" t="s">
+      <c r="R12" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="201"/>
-      <c r="T12" s="202">
+      <c r="S12" s="160"/>
+      <c r="T12" s="161">
         <v>0.95833333333333337</v>
       </c>
-      <c r="U12" s="202"/>
-      <c r="V12" s="205"/>
+      <c r="U12" s="161"/>
+      <c r="V12" s="164"/>
       <c r="W12" s="61"/>
       <c r="X12" s="85"/>
       <c r="Y12" s="21"/>
@@ -4131,41 +4117,41 @@
       <c r="A13" s="86"/>
       <c r="B13" s="22"/>
       <c r="C13" s="64"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="196" t="s">
+      <c r="D13" s="164"/>
+      <c r="E13" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="196" t="s">
+      <c r="F13" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="196" t="s">
+      <c r="G13" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="194" t="s">
+      <c r="H13" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="205"/>
+      <c r="I13" s="164"/>
       <c r="J13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="205"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="203" t="s">
+      <c r="K13" s="164"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="U13" s="203"/>
-      <c r="V13" s="205"/>
-      <c r="W13" s="188" t="s">
+      <c r="U13" s="162"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="X13" s="186" t="s">
+      <c r="X13" s="176" t="s">
         <v>30</v>
       </c>
       <c r="Y13" s="21"/>
@@ -4175,35 +4161,35 @@
       <c r="A14" s="84"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="205"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="164"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="190"/>
-      <c r="Q14" s="190"/>
-      <c r="R14" s="201"/>
-      <c r="S14" s="201"/>
-      <c r="T14" s="204">
+      <c r="K14" s="164"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="163">
         <v>0.20833333333333334</v>
       </c>
-      <c r="U14" s="204"/>
-      <c r="V14" s="205"/>
-      <c r="W14" s="189"/>
-      <c r="X14" s="187"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="164"/>
+      <c r="W14" s="179"/>
+      <c r="X14" s="177"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1" thickBot="1">
-      <c r="A15" s="199"/>
-      <c r="B15" s="199"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="190"/>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
@@ -4219,14 +4205,14 @@
       <c r="O15" s="60"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
-      <c r="R15" s="209"/>
-      <c r="S15" s="209"/>
-      <c r="T15" s="210"/>
-      <c r="U15" s="210"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
       <c r="V15" s="33"/>
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
-      <c r="Y15" s="200"/>
+      <c r="Y15" s="159"/>
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
@@ -4234,41 +4220,41 @@
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="198" t="s">
+      <c r="E16" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
       <c r="H16" s="127"/>
       <c r="I16" s="37"/>
       <c r="J16" s="58" t="s">
         <v>28</v>
       </c>
       <c r="K16" s="38"/>
-      <c r="L16" s="183">
+      <c r="L16" s="166">
         <v>1.25</v>
       </c>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183">
+      <c r="M16" s="166"/>
+      <c r="N16" s="166">
         <v>1.5</v>
       </c>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183">
+      <c r="O16" s="166"/>
+      <c r="P16" s="166">
         <v>2</v>
       </c>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="183">
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166">
         <v>2.5</v>
       </c>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183">
+      <c r="S16" s="166"/>
+      <c r="T16" s="166">
         <v>0.25</v>
       </c>
-      <c r="U16" s="183"/>
+      <c r="U16" s="166"/>
       <c r="V16" s="35"/>
       <c r="W16" s="36"/>
       <c r="X16" s="87"/>
-      <c r="Y16" s="200"/>
+      <c r="Y16" s="159"/>
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" s="41" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
@@ -4285,16 +4271,16 @@
       <c r="I17" s="42"/>
       <c r="J17" s="125"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="212"/>
-      <c r="P17" s="211"/>
-      <c r="Q17" s="212"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="212"/>
-      <c r="T17" s="211"/>
-      <c r="U17" s="212"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="144"/>
       <c r="V17" s="44"/>
       <c r="W17" s="126"/>
       <c r="X17" s="126"/>
@@ -4302,29 +4288,29 @@
       <c r="Z17" s="40"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A18" s="144"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
+      <c r="A18" s="208"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="156" t="s">
+      <c r="H18" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="157"/>
+      <c r="I18" s="223"/>
       <c r="J18" s="124"/>
       <c r="K18" s="65"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="216"/>
-      <c r="N18" s="217"/>
-      <c r="O18" s="217"/>
-      <c r="P18" s="217"/>
-      <c r="Q18" s="217"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="217"/>
-      <c r="U18" s="224"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="157"/>
       <c r="V18" s="46"/>
       <c r="W18" s="59"/>
       <c r="X18" s="89"/>
@@ -4332,29 +4318,29 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A19" s="142"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
+      <c r="A19" s="206"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="158" t="s">
+      <c r="H19" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="159"/>
+      <c r="I19" s="225"/>
       <c r="J19" s="48"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="150"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="158"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="213"/>
       <c r="V19" s="50"/>
       <c r="W19" s="51"/>
       <c r="X19" s="90"/>
@@ -4362,47 +4348,47 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="142"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
+      <c r="A20" s="206"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="39"/>
-      <c r="H20" s="158" t="s">
+      <c r="H20" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="160"/>
+      <c r="I20" s="226"/>
       <c r="J20" s="96" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="42"/>
-      <c r="L20" s="213" t="s">
+      <c r="L20" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="214"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="214"/>
-      <c r="P20" s="214"/>
-      <c r="Q20" s="214"/>
-      <c r="R20" s="214"/>
-      <c r="S20" s="214"/>
-      <c r="T20" s="214"/>
-      <c r="U20" s="215"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="147"/>
       <c r="V20" s="42"/>
-      <c r="W20" s="222" t="s">
+      <c r="W20" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="X20" s="223"/>
+      <c r="X20" s="156"/>
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="10.050000000000001" customHeight="1">
-      <c r="A21" s="142"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
+      <c r="A21" s="206"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="2"/>
       <c r="H21" s="66"/>
       <c r="I21" s="2"/>
@@ -4410,53 +4396,53 @@
         <v>47</v>
       </c>
       <c r="K21" s="53"/>
-      <c r="L21" s="152" t="s">
+      <c r="L21" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="152"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="153"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="215"/>
+      <c r="R21" s="215"/>
+      <c r="S21" s="215"/>
+      <c r="T21" s="215"/>
+      <c r="U21" s="216"/>
       <c r="V21" s="53"/>
-      <c r="W21" s="152" t="s">
+      <c r="W21" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="X21" s="153"/>
+      <c r="X21" s="216"/>
       <c r="Y21" s="54"/>
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A22" s="142"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
+      <c r="A22" s="206"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="158" t="s">
+      <c r="H22" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="160"/>
-      <c r="J22" s="307"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="142"/>
       <c r="K22" s="55"/>
-      <c r="L22" s="308"/>
-      <c r="M22" s="309"/>
-      <c r="N22" s="309"/>
-      <c r="O22" s="309"/>
-      <c r="P22" s="309"/>
-      <c r="Q22" s="309"/>
-      <c r="R22" s="309"/>
-      <c r="S22" s="309"/>
-      <c r="T22" s="309"/>
-      <c r="U22" s="310"/>
+      <c r="L22" s="217"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="218"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="219"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="311"/>
-      <c r="X22" s="312"/>
+      <c r="W22" s="227"/>
+      <c r="X22" s="228"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
@@ -4470,37 +4456,37 @@
       <c r="G23" s="35"/>
       <c r="H23" s="67"/>
       <c r="I23" s="68"/>
-      <c r="J23" s="146" t="s">
+      <c r="J23" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="161" t="s">
-        <v>111</v>
-      </c>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="162"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="210"/>
+      <c r="N23" s="231" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="231"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="231"/>
+      <c r="S23" s="231"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="232"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="313"/>
-      <c r="X23" s="314"/>
+      <c r="W23" s="229"/>
+      <c r="X23" s="230"/>
       <c r="Y23" s="47"/>
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="10.050000000000001" customHeight="1" thickBot="1">
-      <c r="A24" s="154" t="s">
+      <c r="A24" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
       <c r="G24" s="68"/>
       <c r="H24" s="93"/>
       <c r="I24" s="68"/>
@@ -4523,113 +4509,117 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="10.050000000000001" customHeight="1">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="151"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="10.050000000000001" customHeight="1">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
       <c r="G26" s="57"/>
-      <c r="J26" s="147" t="s">
+      <c r="J26" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="211"/>
+      <c r="M26" s="211"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="211"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="211"/>
+      <c r="T26" s="211"/>
+      <c r="U26" s="211"/>
+      <c r="V26" s="211"/>
+      <c r="W26" s="211"/>
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="10.050000000000001" customHeight="1">
-      <c r="A27" s="151" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="J27" s="148" t="s">
+      <c r="A27" s="214" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="J27" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="212"/>
+      <c r="M27" s="212"/>
+      <c r="N27" s="212"/>
+      <c r="O27" s="212"/>
+      <c r="P27" s="212"/>
+      <c r="Q27" s="212"/>
+      <c r="R27" s="212"/>
+      <c r="S27" s="212"/>
+      <c r="T27" s="212"/>
+      <c r="U27" s="212"/>
+      <c r="V27" s="212"/>
+      <c r="W27" s="212"/>
       <c r="Z27" s="2"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="104">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="L20:U20"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="L10:U10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="R12:S14"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J26:W26"/>
+    <mergeCell ref="J27:W27"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="L21:U21"/>
+    <mergeCell ref="L22:U22"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="P2:X2"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="P4:X4"/>
     <mergeCell ref="P5:X5"/>
@@ -4654,48 +4644,44 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="P2:X2"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J26:W26"/>
-    <mergeCell ref="J27:W27"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="L21:U21"/>
-    <mergeCell ref="L22:U22"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="R12:S14"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="L20:U20"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="L10:U10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4705,10 +4691,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -4722,42 +4708,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="288" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="239" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="285" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="240"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="242"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="281"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1">
-      <c r="A2" s="245"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="243" t="s">
+      <c r="A2" s="288"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="243"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="102" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="101"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A4" s="102" t="s">
@@ -4765,25 +4751,25 @@
       </c>
       <c r="B4" s="103"/>
       <c r="C4" s="100"/>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="243"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="242"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="281"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A5" s="102"/>
       <c r="B5" s="101"/>
       <c r="C5" s="100"/>
-      <c r="D5" s="243" t="s">
+      <c r="D5" s="233" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="243"/>
+      <c r="E5" s="233"/>
       <c r="F5" s="101"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="242"/>
+      <c r="G5" s="279"/>
+      <c r="H5" s="281"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A6" s="102" t="s">
@@ -4791,13 +4777,13 @@
       </c>
       <c r="B6" s="105"/>
       <c r="C6" s="100"/>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="243"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="242"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="281"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A7" s="102" t="s">
@@ -4805,29 +4791,29 @@
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="100"/>
-      <c r="D7" s="243" t="s">
+      <c r="D7" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="243"/>
+      <c r="E7" s="233"/>
       <c r="F7" s="106"/>
-      <c r="G7" s="248" t="s">
+      <c r="G7" s="282" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="248"/>
+      <c r="H7" s="282"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A8" s="102" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="103"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="249" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="284" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="102" t="s">
@@ -4835,13 +4821,13 @@
       </c>
       <c r="B9" s="101"/>
       <c r="C9" s="102"/>
-      <c r="D9" s="243" t="s">
+      <c r="D9" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="252"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="264"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A10" s="102" t="s">
@@ -4849,145 +4835,145 @@
       </c>
       <c r="B10" s="103"/>
       <c r="C10" s="100"/>
-      <c r="D10" s="243" t="s">
+      <c r="D10" s="233" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="243"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="252"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="264"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="102" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="100"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="252"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="264"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickTop="1" thickBot="1">
-      <c r="A12" s="243"/>
-      <c r="B12" s="243"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="243"/>
-      <c r="H12" s="243"/>
+      <c r="A12" s="233"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="233"/>
+      <c r="G12" s="233"/>
+      <c r="H12" s="233"/>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1">
-      <c r="A13" s="256" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="257"/>
+      <c r="A13" s="268" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="269"/>
       <c r="C13" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="258" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="270" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="259"/>
+      <c r="E13" s="271"/>
       <c r="F13" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="256" t="s">
+      <c r="G13" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="257"/>
+      <c r="H13" s="269"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="264" t="s">
+      <c r="A14" s="274" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="264"/>
-      <c r="C14" s="265" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="267"/>
-      <c r="H14" s="267"/>
+      <c r="B14" s="274"/>
+      <c r="C14" s="275" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="276"/>
+      <c r="E14" s="276"/>
+      <c r="F14" s="276"/>
+      <c r="G14" s="277"/>
+      <c r="H14" s="277"/>
     </row>
     <row r="15" spans="1:8" ht="14.65" thickTop="1">
       <c r="A15" s="113"/>
       <c r="B15" s="113"/>
       <c r="C15" s="133"/>
-      <c r="D15" s="260" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="261"/>
+      <c r="D15" s="272" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="273"/>
       <c r="F15" s="113"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="268"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
     </row>
     <row r="16" spans="1:8" ht="14.65" customHeight="1" thickBot="1">
-      <c r="A16" s="253" t="s">
+      <c r="A16" s="265" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="254"/>
+      <c r="B16" s="266"/>
       <c r="C16" s="134"/>
-      <c r="D16" s="233" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="234"/>
+      <c r="D16" s="291" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="292"/>
       <c r="F16" s="136"/>
-      <c r="G16" s="255"/>
-      <c r="H16" s="255"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="267"/>
     </row>
     <row r="17" spans="1:8" ht="14.65" thickTop="1">
-      <c r="A17" s="262" t="s">
+      <c r="A17" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="262"/>
+      <c r="B17" s="261"/>
       <c r="C17" s="135">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="D17" s="235"/>
-      <c r="E17" s="236"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="294"/>
       <c r="F17" s="141"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="262"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="261"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="263" t="s">
+      <c r="A18" s="239" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="263"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="239"/>
+      <c r="H18" s="239"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="243"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="243"/>
+      <c r="A19" s="233"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A20" s="269" t="s">
+      <c r="A20" s="259" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="269"/>
-      <c r="C20" s="270" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="270"/>
-      <c r="E20" s="270"/>
-      <c r="F20" s="270"/>
-      <c r="G20" s="270"/>
-      <c r="H20" s="270"/>
+      <c r="B20" s="259"/>
+      <c r="C20" s="260" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="260"/>
+      <c r="E20" s="260"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="260"/>
+      <c r="H20" s="260"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A21" s="111" t="s">
@@ -4997,13 +4983,13 @@
         <v>1.25</v>
       </c>
       <c r="C21" s="137"/>
-      <c r="D21" s="237" t="s">
+      <c r="D21" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="238"/>
+      <c r="E21" s="296"/>
       <c r="F21" s="139"/>
-      <c r="G21" s="271"/>
-      <c r="H21" s="271"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A22" s="111" t="s">
@@ -5013,13 +4999,13 @@
         <v>1.5</v>
       </c>
       <c r="C22" s="137"/>
-      <c r="D22" s="237" t="s">
+      <c r="D22" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="238"/>
+      <c r="E22" s="296"/>
       <c r="F22" s="139"/>
-      <c r="G22" s="271"/>
-      <c r="H22" s="271"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="246"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A23" s="111" t="s">
@@ -5029,13 +5015,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="137"/>
-      <c r="D23" s="237" t="s">
+      <c r="D23" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="238"/>
+      <c r="E23" s="296"/>
       <c r="F23" s="139"/>
-      <c r="G23" s="271"/>
-      <c r="H23" s="271"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A24" s="111" t="s">
@@ -5045,85 +5031,85 @@
         <v>2.5</v>
       </c>
       <c r="C24" s="137"/>
-      <c r="D24" s="237" t="s">
+      <c r="D24" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="238"/>
+      <c r="E24" s="296"/>
       <c r="F24" s="139"/>
-      <c r="G24" s="271"/>
-      <c r="H24" s="271"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="246"/>
     </row>
     <row r="25" spans="1:8" ht="30.4" customHeight="1" thickTop="1">
-      <c r="A25" s="273" t="s">
+      <c r="A25" s="247" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="247"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="252" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="253"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="247"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.65" thickBot="1">
+      <c r="A26" s="248" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="249"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="239"/>
+      <c r="H26" s="239"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="251"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="233"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="256" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="256"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="233"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="233"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A30" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="273"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="278" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="279"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="273"/>
-      <c r="H25" s="273"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.65" thickBot="1">
-      <c r="A26" s="274" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="275"/>
-      <c r="C26" s="275"/>
-      <c r="D26" s="275"/>
-      <c r="E26" s="275"/>
-      <c r="F26" s="276"/>
-      <c r="G26" s="263"/>
-      <c r="H26" s="263"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="277"/>
-      <c r="B27" s="277"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="277"/>
-      <c r="G27" s="243"/>
-      <c r="H27" s="243"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="281" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="281"/>
-      <c r="C28" s="281"/>
-      <c r="D28" s="281"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="281"/>
-      <c r="G28" s="281"/>
-      <c r="H28" s="281"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="243"/>
-      <c r="B29" s="243"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A30" s="282" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="282"/>
-      <c r="C30" s="283" t="s">
+      <c r="B30" s="257"/>
+      <c r="C30" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="283"/>
-      <c r="E30" s="283"/>
-      <c r="F30" s="283"/>
-      <c r="G30" s="283"/>
-      <c r="H30" s="283"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A31" s="109" t="s">
@@ -5131,13 +5117,13 @@
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="225"/>
-      <c r="E31" s="226"/>
+        <v>92</v>
+      </c>
+      <c r="D31" s="254"/>
+      <c r="E31" s="255"/>
       <c r="F31" s="109"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="272"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A32" s="109" t="s">
@@ -5147,29 +5133,29 @@
         <v>55</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="225"/>
-      <c r="E32" s="226"/>
+        <v>92</v>
+      </c>
+      <c r="D32" s="254"/>
+      <c r="E32" s="255"/>
       <c r="F32" s="109"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="272"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A33" s="109" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="225"/>
-      <c r="E33" s="226"/>
+        <v>92</v>
+      </c>
+      <c r="D33" s="254"/>
+      <c r="E33" s="255"/>
       <c r="F33" s="109"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="272"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
     </row>
     <row r="34" spans="1:8" ht="14.65" thickTop="1">
       <c r="A34" s="114" t="s">
@@ -5179,232 +5165,213 @@
         <v>55</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="228"/>
+        <v>92</v>
+      </c>
+      <c r="D34" s="300"/>
+      <c r="E34" s="301"/>
       <c r="F34" s="114"/>
-      <c r="G34" s="280"/>
-      <c r="H34" s="280"/>
+      <c r="G34" s="245"/>
+      <c r="H34" s="245"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="263" t="s">
+      <c r="A35" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="263"/>
-      <c r="C35" s="263"/>
-      <c r="D35" s="263"/>
-      <c r="E35" s="263"/>
-      <c r="F35" s="263"/>
-      <c r="G35" s="263"/>
-      <c r="H35" s="263"/>
+      <c r="B35" s="239"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="239"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="239"/>
+      <c r="G35" s="239"/>
+      <c r="H35" s="239"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="243"/>
-      <c r="B36" s="243"/>
-      <c r="C36" s="243"/>
-      <c r="D36" s="243"/>
-      <c r="E36" s="243"/>
-      <c r="F36" s="243"/>
-      <c r="G36" s="243"/>
-      <c r="H36" s="243"/>
+      <c r="A36" s="233"/>
+      <c r="B36" s="233"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="233"/>
+      <c r="G36" s="233"/>
+      <c r="H36" s="233"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="281" t="s">
+      <c r="A37" s="256" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="281"/>
-      <c r="C37" s="281"/>
-      <c r="D37" s="281"/>
-      <c r="E37" s="281"/>
-      <c r="F37" s="281"/>
-      <c r="G37" s="281"/>
-      <c r="H37" s="281"/>
+      <c r="B37" s="256"/>
+      <c r="C37" s="256"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="284"/>
-      <c r="B38" s="284"/>
-      <c r="C38" s="284"/>
-      <c r="D38" s="284"/>
-      <c r="E38" s="284"/>
-      <c r="F38" s="284"/>
-      <c r="G38" s="284"/>
-      <c r="H38" s="284"/>
+      <c r="A38" s="297"/>
+      <c r="B38" s="297"/>
+      <c r="C38" s="297"/>
+      <c r="D38" s="297"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="297"/>
+      <c r="G38" s="297"/>
+      <c r="H38" s="297"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="298" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="285"/>
+      <c r="B39" s="298"/>
       <c r="C39" s="99"/>
       <c r="D39" s="98"/>
       <c r="E39" s="98"/>
       <c r="F39" s="98"/>
-      <c r="G39" s="286" t="s">
+      <c r="G39" s="299" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="299"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="233"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="233"/>
+      <c r="D40" s="233"/>
+      <c r="E40" s="233"/>
+      <c r="F40" s="233"/>
+      <c r="G40" s="233"/>
+      <c r="H40" s="233"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A41" s="240" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="240"/>
+      <c r="C41" s="241" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="241"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="241"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickTop="1" thickBot="1">
+      <c r="A42" s="242" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="242"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="302" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="303"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="242"/>
+      <c r="H42" s="242"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickTop="1" thickBot="1">
+      <c r="A43" s="242" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="286"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="243"/>
-      <c r="B40" s="243"/>
-      <c r="C40" s="243"/>
-      <c r="D40" s="243"/>
-      <c r="E40" s="243"/>
-      <c r="F40" s="243"/>
-      <c r="G40" s="243"/>
-      <c r="H40" s="243"/>
-    </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A41" s="287" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="287"/>
-      <c r="C41" s="288" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="288"/>
-      <c r="E41" s="288"/>
-      <c r="F41" s="288"/>
-      <c r="G41" s="288"/>
-      <c r="H41" s="288"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" thickTop="1" thickBot="1">
-      <c r="A42" s="289" t="s">
+      <c r="B43" s="242"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="302" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="303"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="242"/>
+      <c r="H43" s="242"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.65" thickTop="1">
+      <c r="A44" s="243" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="243"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="289"/>
+      <c r="E44" s="290"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="243"/>
+      <c r="H44" s="243"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="239" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="289"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="229" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="230"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="289"/>
-      <c r="H42" s="289"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" thickTop="1" thickBot="1">
-      <c r="A43" s="289" t="s">
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="239"/>
+      <c r="H45" s="239"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.65" thickBot="1">
+      <c r="A46" s="233"/>
+      <c r="B46" s="233"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="233"/>
+      <c r="H46" s="233"/>
+    </row>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A47" s="234" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="289"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="229" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="230"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="289"/>
-      <c r="H43" s="289"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.65" thickTop="1">
-      <c r="A44" s="295" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="295"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="232"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="295"/>
-      <c r="H44" s="295"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="263" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="263"/>
-      <c r="C45" s="263"/>
-      <c r="D45" s="263"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="263"/>
-      <c r="G45" s="263"/>
-      <c r="H45" s="263"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.65" thickBot="1">
-      <c r="A46" s="243"/>
-      <c r="B46" s="243"/>
-      <c r="C46" s="243"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-    </row>
-    <row r="47" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A47" s="290" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="291"/>
-      <c r="C47" s="291"/>
-      <c r="D47" s="291"/>
-      <c r="E47" s="291"/>
-      <c r="F47" s="291"/>
-      <c r="G47" s="291"/>
-      <c r="H47" s="292"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="235"/>
+      <c r="H47" s="236"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="294" t="s">
+      <c r="A48" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="294"/>
-      <c r="C48" s="294"/>
-      <c r="D48" s="294"/>
-      <c r="E48" s="293" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="293"/>
-      <c r="G48" s="293"/>
-      <c r="H48" s="293"/>
+      <c r="B48" s="238"/>
+      <c r="C48" s="238"/>
+      <c r="D48" s="238"/>
+      <c r="E48" s="237" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="237"/>
+      <c r="G48" s="237"/>
+      <c r="H48" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="A16:B16"/>
@@ -5421,40 +5388,59 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5462,11 +5448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.4"/>
@@ -5476,36 +5462,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.649999999999999" thickBot="1">
-      <c r="A1" s="297" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
+      <c r="A1" s="305" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
       <c r="G1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="298" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="299"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="307"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" thickBot="1">
-      <c r="A2" s="300"/>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
       <c r="G2" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="301" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="302"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="310"/>
     </row>
     <row r="3" spans="1:9" ht="13.15" thickBot="1">
       <c r="A3" s="120"/>
@@ -5523,50 +5505,42 @@
         <v>11</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="303" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="311" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="305"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="313"/>
       <c r="I4" s="121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="128"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="129"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="A6" s="304" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="306" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="129">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.149999999999999" customHeight="1">
-      <c r="A6" s="296" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="296"/>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
       <c r="I6" s="130"/>
     </row>
   </sheetData>
